--- a/public/assets/report/report-campak.xlsx
+++ b/public/assets/report/report-campak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BEFA9-E8D4-43CD-BA52-4B766488F9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2EBDED-38BF-4F50-9ECB-FF79A641BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41137004-F5F4-4944-80BA-8834593916C1}"/>
   </bookViews>
@@ -129,22 +129,22 @@
     <t>: Kolom 16: Pemberian Vit.A saat sakit campak</t>
   </si>
   <si>
-    <t>Kepala Puskesmas Tamangapa</t>
-  </si>
-  <si>
     <t>: Kolom 17 : H= Hidup,M= Mati</t>
   </si>
   <si>
     <t>:*Klasifikasi final diisi oleh Kabupaten</t>
   </si>
   <si>
-    <t>dr.Hj.Sri Zakiah Usman</t>
-  </si>
-  <si>
-    <t>Nip. 19700521 200212 2 006</t>
-  </si>
-  <si>
     <t>Provinsi : Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>dr. Fatimah, M.Kes</t>
+  </si>
+  <si>
+    <t>Nip. 19851125 201101 2 009</t>
+  </si>
+  <si>
+    <t>Plt Kepala Puskesmas Tamangapa</t>
   </si>
 </sst>
 </file>
@@ -455,6 +455,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -473,56 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,84 +840,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F35378-B58A-4E94-A25C-8977B8AC10A8}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -938,7 +938,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -972,118 +972,118 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="13" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="17"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="16" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="13" t="s">
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1093,284 +1093,284 @@
       <c r="S8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="8">
         <v>6</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="8">
         <v>7</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="8">
         <v>8</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="8">
         <v>10</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="8">
         <v>11</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="8">
         <v>12</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="8">
         <v>13</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="8">
         <v>14</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="8">
         <v>15</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="8">
         <v>16</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="8">
         <v>17</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="8">
         <v>18</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="8">
         <v>19</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="8">
         <v>20</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="26"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1392,7 +1392,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1404,7 +1404,7 @@
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1429,7 +1429,7 @@
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1503,18 +1503,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
@@ -1531,6 +1519,18 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="U7:U8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
